--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed1/result_data_RandomForest.xlsx
@@ -505,10 +505,10 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.688799999999998</v>
+        <v>-6.565099999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>13.1718</v>
+        <v>13.3902</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.20050000000001</v>
+        <v>13.3412</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.7319</v>
+        <v>-7.789899999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>13.8796</v>
+        <v>13.8844</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.432299999999995</v>
+        <v>-7.449799999999991</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -573,10 +573,10 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.419299999999996</v>
+        <v>-7.516199999999993</v>
       </c>
       <c r="E8" t="n">
-        <v>14.27599999999999</v>
+        <v>14.36099999999999</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.435599999999998</v>
+        <v>-7.660599999999996</v>
       </c>
       <c r="E16" t="n">
-        <v>14.2384</v>
+        <v>13.9821</v>
       </c>
     </row>
     <row r="17">
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.489699999999996</v>
+        <v>-7.571799999999999</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.492799999999996</v>
+        <v>-7.590799999999996</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>13.2406</v>
+        <v>13.37989999999999</v>
       </c>
     </row>
     <row r="23">
